--- a/MEDIA/_2281_009_會計科目餘額明細.xlsx
+++ b/MEDIA/_2281_009_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_2281_009_2020-10-01~2020-10-14)</t>
+          <t>森邦(股)會計科目餘額明細(_2281_009_2020-10-01~2020-10-28)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>8896145</v>
+        <v>8781145</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -452,7 +452,7 @@
         <v>-60000</v>
       </c>
       <c r="G4" t="n">
-        <v>8956145</v>
+        <v>8841145</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,21 +483,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>暫收-蘆竹鴻佰科技-林欣杰-暫收款6萬           </t>
+          <t>沖頂-楊梅梅獅教育訓練費                  </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="F5" t="n">
-        <v>-60000</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>9016145</v>
+        <v>8801145</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109656</t>
+          <t>110652</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201007</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>暫收-花蓮東華-林弘銘 工程款$232,640       </t>
+          <t>沖台中文華設備款                      </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="F6" t="n">
-        <v>-232640</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9248785</v>
+        <v>8777645</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109765</t>
+          <t>110652</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>頂-三重三民-蔣奇勳 工程款15萬元            </t>
+          <t>沖鳳山光復設備款                      </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F7" t="n">
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>9398785</v>
+        <v>8677645</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109830</t>
+          <t>110659</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,21 +606,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>暫收-中壢三光-徐任賢/徐金發 工程款34萬        </t>
+          <t>沖屏東瑞光設備款                      </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="F8" t="n">
-        <v>-340000</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9738785</v>
+        <v>8617645</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109830</t>
+          <t>110657</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,21 +647,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>暫收-楊梅校前-謝承宏 工程款18萬            </t>
+          <t>沖屏東自由設備款                      </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="F9" t="n">
-        <v>-180000</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>9918785</v>
+        <v>8367645</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109882</t>
+          <t>110655</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201005</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -688,21 +688,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>暫收-周和泰 代尋2萬                   </t>
+          <t>暫收-蘆竹鴻佰科技-林欣杰-暫收款6萬           </t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-20000</v>
+        <v>-60000</v>
       </c>
       <c r="G10" t="n">
-        <v>9938785</v>
+        <v>8427645</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>109656</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -714,39 +714,572 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>20201007</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>暫收-花蓮東華-林弘銘 工程款$232,640       </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-232640</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8660285</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>109765</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>暫收-中壢三光-徐任賢/徐金發 工程款34萬        </t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-340000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9000285</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>109830</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>頂-三重三民-蔣奇勳 工程款15萬元            </t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-150000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9150285</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>109830</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20201009</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>暫收-楊梅校前-謝承宏 工程款18萬            </t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-180000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9330285</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>109882</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>20201013</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>暫收-大甲日南店 張雅惠 工程款$261480       </t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>-261480</v>
       </c>
-      <c r="G11" t="n">
-        <v>10200265</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G15" t="n">
+        <v>9591765</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>109982</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20201013</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>暫收-周和泰 代尋2萬                   </t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9611765</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>109982</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>暫收-羅東成功 工程款分期$10000           </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-10000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9621765</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>110266</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20201021</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>暫收-羅東國中 工程款30萬                </t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-300000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9921765</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>110378</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>暫收-北市成都-王岡元 工程款$323400        </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-323400</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10245165</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>110438</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>暫收-竹東長春-彭立蓁匯/卓定暟 工程款588萬      </t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-588000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10833165</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>110438</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20201023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>暫收-泰山仁武-黃依凡 工程款20萬            </t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11033165</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>110505</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20201023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>暫收-樹林保安 工程款$835250            </t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-835250</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11868415</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>110505</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20201023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>暫收-永和永利-吳珮瑜 工程款14萬            </t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-140000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>12008415</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>110505</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20201027</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>頂-新竹新莊-何武亮 暫收款6萬              </t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>12068415</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>110649</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/MEDIA/_2281_009_會計科目餘額明細.xlsx
+++ b/MEDIA/_2281_009_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_2281_009_2020-10-01~2020-10-28)</t>
+          <t>森邦(股)會計科目餘額明細(_2281_009_2020-09-01~2020-09-30)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>8781145</v>
+        <v>7319000</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20200901</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>頂-虎尾林森-鍾葦蓁暫收6萬+保證金5萬          </t>
+          <t>暫收-台南站前 招牌工程分期(一)25000        </t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-60000</v>
+        <v>-25000</v>
       </c>
       <c r="G4" t="n">
-        <v>8841145</v>
+        <v>7344000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109528</t>
+          <t>108267</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20200901</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,21 +483,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沖頂-楊梅梅獅教育訓練費                  </t>
+          <t>沖桃園中正長春設備款                    </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>40000</v>
+        <v>1160000</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8801145</v>
+        <v>6184000</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110652</t>
+          <t>109550</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20200901</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>沖台中文華設備款                      </t>
+          <t>沖樹林保安-教育訓練費                   </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23500</v>
+        <v>40000</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8777645</v>
+        <v>6144000</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110652</t>
+          <t>108882</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20200901</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>沖鳳山光復設備款                      </t>
+          <t>頂-大溪仁中教育訓練費                   </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>8677645</v>
+        <v>6084000</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110659</t>
+          <t>109467</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20200901</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,21 +606,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>沖屏東瑞光設備款                      </t>
+          <t>沖台南站前設備款                      </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>8617645</v>
+        <v>6059000</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110657</t>
+          <t>109467</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20200901</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,21 +647,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>沖屏東自由設備款                      </t>
+          <t>頂-竹北民權-教育訓練費                  </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>250000</v>
+        <v>60000</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>8367645</v>
+        <v>5999000</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110655</t>
+          <t>109532</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200901</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -688,21 +688,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>暫收-蘆竹鴻佰科技-林欣杰-暫收款6萬           </t>
+          <t>沖土城永寧 設備款                     </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>986875</v>
       </c>
       <c r="F10" t="n">
-        <v>-60000</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>8427645</v>
+        <v>5012125</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109656</t>
+          <t>109530</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -714,7 +714,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201007</t>
+          <t>20200902</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -729,21 +729,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>暫收-花蓮東華-林弘銘 工程款$232,640       </t>
+          <t>暫收-花蓮東華-林弘銘 工程款70萬            </t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-232640</v>
+        <v>-700000</v>
       </c>
       <c r="G11" t="n">
-        <v>8660285</v>
+        <v>5712125</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109765</t>
+          <t>108298</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20200904</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -770,21 +770,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>暫收-中壢三光-徐任賢/徐金發 工程款34萬        </t>
+          <t>頂-三重三民-蔣奇勳 暫收款6萬元             </t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-340000</v>
+        <v>-60000</v>
       </c>
       <c r="G12" t="n">
-        <v>9000285</v>
+        <v>5772125</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109830</t>
+          <t>108389</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20200907</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -811,21 +811,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>頂-三重三民-蔣奇勳 工程款15萬元            </t>
+          <t>暫收-永和永利店-吳珮瑜 工程款20萬元          </t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-150000</v>
+        <v>-200000</v>
       </c>
       <c r="G13" t="n">
-        <v>9150285</v>
+        <v>5972125</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109830</t>
+          <t>108474</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20200908</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -852,21 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>暫收-楊梅校前-謝承宏 工程款18萬            </t>
+          <t>暫收-永和永利店-吳珮瑜 工程款20萬元          </t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-180000</v>
+        <v>-200000</v>
       </c>
       <c r="G14" t="n">
-        <v>9330285</v>
+        <v>6172125</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109882</t>
+          <t>108519</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20200909</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -893,21 +893,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>暫收-大甲日南店 張雅惠 工程款$261480       </t>
+          <t>暫收-永和永利店-吳珮瑜 工程款10萬元          </t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-261480</v>
+        <v>-100000</v>
       </c>
       <c r="G15" t="n">
-        <v>9591765</v>
+        <v>6272125</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>108564</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -919,7 +919,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20200914</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -934,21 +934,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>暫收-周和泰 代尋2萬                   </t>
+          <t>暫收-大甲日南-張雅惠 工程款55萬            </t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-20000</v>
+        <v>-550000</v>
       </c>
       <c r="G16" t="n">
-        <v>9611765</v>
+        <v>6822125</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>108726</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201019</t>
+          <t>20200915</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -975,21 +975,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>暫收-羅東成功 工程款分期$10000           </t>
+          <t>頂-北市立農-楊宗憲(士商2店)暫收款4萬元        </t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-10000</v>
+        <v>-40000</v>
       </c>
       <c r="G17" t="n">
-        <v>9621765</v>
+        <v>6862125</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>110266</t>
+          <t>108778</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20200915</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1016,21 +1016,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>暫收-羅東國中 工程款30萬                </t>
+          <t>暫收-桃園中正長春-翁淑媛/黃學文 工程款40萬元     </t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-300000</v>
+        <v>-400000</v>
       </c>
       <c r="G18" t="n">
-        <v>9921765</v>
+        <v>7262125</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>110378</t>
+          <t>108778</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1042,7 +1042,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20200915</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1057,21 +1057,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>暫收-北市成都-王岡元 工程款$323400        </t>
+          <t>暫收-北市成都-王岡元 工程款50萬元           </t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-323400</v>
+        <v>-500000</v>
       </c>
       <c r="G19" t="n">
-        <v>10245165</v>
+        <v>7762125</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>110438</t>
+          <t>108778</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20200916</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1098,21 +1098,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>暫收-竹東長春-彭立蓁匯/卓定暟 工程款588萬      </t>
+          <t>暫收-余灼蓮 代尋2萬元                  </t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-588000</v>
+        <v>-20000</v>
       </c>
       <c r="G20" t="n">
-        <v>10833165</v>
+        <v>7782125</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110438</t>
+          <t>108800</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1124,7 +1124,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201023</t>
+          <t>20200923</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1139,21 +1139,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>暫收-泰山仁武-黃依凡 工程款20萬            </t>
+          <t> 暫收-戴勝儒/吳孟穎匯-土城永寧 工程款         </t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-200000</v>
+        <v>-226875</v>
       </c>
       <c r="G21" t="n">
-        <v>11033165</v>
+        <v>8009000</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>110505</t>
+          <t>109185</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201023</t>
+          <t>20200923</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1180,21 +1180,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>暫收-樹林保安 工程款$835250            </t>
+          <t>暫收-林宏羿/林廷聿 北市景福-林廷聿           </t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-835250</v>
+        <v>-276600</v>
       </c>
       <c r="G22" t="n">
-        <v>11868415</v>
+        <v>8285600</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110505</t>
+          <t>109185</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201023</t>
+          <t>20200923</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1221,21 +1221,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>暫收-永和永利-吳珮瑜 工程款14萬            </t>
+          <t>暫收-台中安德-蔡叔惠 工程款28萬            </t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-140000</v>
+        <v>-280000</v>
       </c>
       <c r="G23" t="n">
-        <v>12008415</v>
+        <v>8565600</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>110505</t>
+          <t>109185</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1247,7 +1247,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201027</t>
+          <t>20200929</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1262,24 +1262,147 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>頂-新竹新莊-何武亮 暫收款6萬              </t>
+          <t>暫收-彰化旭光-吳俊育(李君怡匯入) 工程款 $290545</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
+        <v>-290545</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8856145</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>109417</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20200929</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>頂-楊梅梅獅-羅秀娣 暫收款4萬              </t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-40000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8896145</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>109417</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20200930</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沖台南中華設備款                      </t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>175000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8721145</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>110339</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20200930</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沖-10906台北展NO30吳雅華-頂竹北民權 暫收款6萬 </t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>-60000</v>
       </c>
-      <c r="G24" t="n">
-        <v>12068415</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>110649</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
+      <c r="G27" t="n">
+        <v>8781145</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>110337</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
